--- a/BrightInvest/Infrastructure/Seed/AssetSeed.xlsx
+++ b/BrightInvest/Infrastructure/Seed/AssetSeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface\source\repos\BrightInvest\BrightInvest\Infrastructure\Seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D35FA5-8EB8-41AD-B467-31ADC8310FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399ECEFB-5AC5-4BDF-97BB-54D8A7291295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="530" yWindow="1040" windowWidth="21600" windowHeight="11390" xr2:uid="{4A30A290-8E33-4E68-A9EA-5F6A7B3F0996}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
